--- a/db/uploads/coopbranches.xlsx
+++ b/db/uploads/coopbranches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/Claims/db/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ansellgabrieldelayre/Sites/cis_life_main/db/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05847639-71D5-804C-877F-362E493CDA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9CFEE-1451-2840-9A74-486369165453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{B0F5512D-A38C-FA4E-88F8-8793475EBC25}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3412,6 +3411,10 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="86.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
